--- a/status_20120723.xlsx
+++ b/status_20120723.xlsx
@@ -19,7 +19,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not started</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Media for Home Page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CQ5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tim and Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work by Carl Albrecht-Buehler started on 7/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carl/Dan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sebastian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not started</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assignee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need backend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Custom tooltip with comment dropdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sebastian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eddie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Completed Widgets:</t>
   </si>
@@ -43,9 +163,6 @@
   </si>
   <si>
     <t>[4.0] Featured Question (Category Specific)</t>
-  </si>
-  <si>
-    <t>Work by Carl Albrecht-Buehler started on 7/23</t>
   </si>
   <si>
     <t>[7.0] Result List</t>
@@ -193,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -201,9 +318,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -537,298 +651,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A3:C84"/>
+  <dimension ref="A3:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD9"/>
+    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="14">
+    <row r="3" spans="1:6" ht="14">
       <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="14">
+    <row r="5" spans="1:6" ht="14">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14">
       <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="14">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14">
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="14">
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="14">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14">
+      <c r="A25">
         <v>13</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14">
+      <c r="A26">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="14">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="25" spans="1:3" ht="14">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="4"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="30" spans="1:3" ht="14">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="B31" s="4"/>
-    </row>
-    <row r="35" spans="2:2" ht="14">
+      <c r="B26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14">
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="14">
+      <c r="A31">
+        <v>0.5</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14">
+      <c r="A32">
+        <v>0.7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14">
       <c r="B35" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="2:2" ht="14">
+    <row r="37" spans="1:6" ht="14">
+      <c r="A37">
+        <v>0.2</v>
+      </c>
       <c r="B37" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="14">
-      <c r="B38" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="14">
-      <c r="B39" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="14">
-      <c r="B40" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="14">
-      <c r="B41" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" ht="14">
-      <c r="B44" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:2" ht="14">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14">
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="14">
+      <c r="A42">
+        <v>0.2</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14">
+      <c r="A43">
+        <v>0.3</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14">
+      <c r="A44">
+        <v>0.4</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14">
+      <c r="A45">
+        <v>0.6</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14">
+      <c r="A46">
+        <v>0.8</v>
+      </c>
       <c r="B46" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="14">
+        <v>60</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14">
+      <c r="A47">
+        <v>0.9</v>
+      </c>
       <c r="B47" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="14">
       <c r="B50" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="2:2" ht="14">
+    <row r="52" spans="2:5" ht="14">
       <c r="B52" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" ht="14">
-      <c r="B55" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="2:2" ht="14">
-      <c r="B57" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" ht="14">
-      <c r="B58" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" ht="14">
-      <c r="B59" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" ht="14">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="14">
+      <c r="B53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="14">
+      <c r="B54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="14">
+      <c r="B55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="14">
+      <c r="B58" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="2:5" ht="14">
       <c r="B60" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" ht="14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="14">
       <c r="B61" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" ht="14">
-      <c r="B62" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" ht="14">
-      <c r="B65" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="2:2" ht="14">
-      <c r="B67" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" ht="14">
-      <c r="B68" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" ht="14">
-      <c r="B69" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" ht="14">
-      <c r="B70" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" ht="14">
-      <c r="B73" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="2:2" ht="14">
-      <c r="B75" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" ht="14">
-      <c r="B76" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" ht="14"/>
-    <row r="78" spans="2:2" ht="14"/>
-    <row r="81" ht="14"/>
-    <row r="83" ht="14"/>
-    <row r="84" ht="14"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="14"/>
+    <row r="63" spans="2:5" ht="14"/>
+    <row r="66" ht="14"/>
+    <row r="68" ht="14"/>
+    <row r="69" ht="14"/>
+    <row r="70" ht="14"/>
+    <row r="71" ht="14"/>
+    <row r="74" ht="14"/>
+    <row r="76" ht="14"/>
+    <row r="77" ht="14"/>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/status_20120723.xlsx
+++ b/status_20120723.xlsx
@@ -19,40 +19,112 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+  <si>
+    <t>Sebastian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open ID - Facebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eddie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partial and java script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>html, css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html, css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html, css and backend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backend, (next previous html)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>in progress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Hero/Media for Home Page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CQ5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tim and Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carl/Dan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sebastian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>not started</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hero/Media for Home Page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CQ5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tim and Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work by Carl Albrecht-Buehler started on 7/23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,71 +133,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Jason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assignee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need backend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Custom tooltip with comment dropdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sebastian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eddie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile and single pages. Shows expanded "read more" content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can use pagination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Tim</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Carl/Dan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sebastian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not started</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jason</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assignee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Priority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>need backend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Custom tooltip with comment dropdown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>low</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sebastian</t>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Question, Article (Buying Guide, Blog)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA Servers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -133,11 +245,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>high</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eddie</t>
+    <t>Brendan/Shafeeg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,21 +276,12 @@
     <t>[7.0] Result List</t>
   </si>
   <si>
-    <t>Work by Carl Albrecht-Buehler started on 7/19</t>
-  </si>
-  <si>
     <t>[10.0] Post a Question</t>
   </si>
   <si>
-    <t>Work by Tim Steele started on 7/19</t>
-  </si>
-  <si>
     <t>[12.0] Sub-Navigation</t>
   </si>
   <si>
-    <t>Work By Jason Corradino started on 7/23</t>
-  </si>
-  <si>
     <t>Outstanding Widgets:</t>
   </si>
   <si>
@@ -250,15 +349,6 @@
   </si>
   <si>
     <t>Single-post pages</t>
-  </si>
-  <si>
-    <t>Other Reasons for Concern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are still having engineering discussions at the front end 10:15 stand-up that are lasting a half-hour to an hour and a half. There seems to still be confusion regarding what is necessary for the project. </t>
-  </si>
-  <si>
-    <t>The time required to develop on the front end is close to exceeding the time remaining before our 8/7 launch date.</t>
   </si>
 </sst>
 </file>
@@ -310,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -322,6 +412,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,431 +742,553 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A3:F77"/>
+  <dimension ref="A3:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="175" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="14">
+    <row r="3" spans="1:7" ht="14">
       <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="14">
+    <row r="5" spans="1:7" ht="14">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14">
       <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="14">
+    <row r="14" spans="1:7" ht="14">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="5">
+        <v>39651</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="5">
+        <v>39652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="B18" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="14">
+    <row r="20" spans="1:7" ht="14">
       <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="14">
+    <row r="22" spans="1:7" ht="14">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14">
+        <v>38</v>
+      </c>
+      <c r="G22" s="5">
+        <v>39654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14">
       <c r="A23">
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14">
+        <v>39</v>
+      </c>
+      <c r="G23" s="5">
+        <v>39655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14">
       <c r="A24">
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="5">
+        <v>39654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14">
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
         <v>47</v>
       </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14">
-      <c r="A25">
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="14">
+      <c r="A26">
         <v>13</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14">
+      <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="14">
+      <c r="A32">
+        <v>0.5</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14">
+      <c r="A33">
+        <v>0.7</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14">
+      <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="14">
+      <c r="A38">
+        <v>0.2</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14">
+      <c r="B41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" ht="14">
+      <c r="A43">
+        <v>0.2</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="5">
+        <v>39655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14">
+      <c r="A44">
+        <v>0.3</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="14">
+      <c r="A45">
+        <v>0.4</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14">
+      <c r="A46">
+        <v>0.6</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14">
-      <c r="A26">
-        <v>14</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="F46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="5">
+        <v>39655</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14">
+      <c r="A47">
+        <v>0.8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="14">
-      <c r="B29" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="14">
-      <c r="A31">
-        <v>0.5</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14">
-      <c r="A32">
-        <v>0.7</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="14">
-      <c r="B35" s="1" t="s">
+      <c r="E47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14">
+      <c r="A48">
+        <v>0.9</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="14">
+      <c r="B51" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:7" ht="14">
+      <c r="B53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="14">
+      <c r="B54" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="14">
+      <c r="B55" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="5">
+        <v>39655</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="14">
+      <c r="B56" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="14">
-      <c r="A37">
-        <v>0.2</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="5">
+        <v>39655</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="14">
+      <c r="B58" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="14">
-      <c r="B40" s="1" t="s">
+      <c r="F58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="14">
-      <c r="A42">
-        <v>0.2</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14">
-      <c r="A43">
-        <v>0.3</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="14">
-      <c r="A44">
-        <v>0.4</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14">
-      <c r="A45">
-        <v>0.6</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14">
-      <c r="A46">
-        <v>0.8</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14">
-      <c r="A47">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="14">
-      <c r="B50" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="2:5" ht="14">
-      <c r="B52" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="14">
-      <c r="B53" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="14">
-      <c r="B54" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="14">
-      <c r="B55" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="14">
-      <c r="B58" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="2:5" ht="14">
-      <c r="B60" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="14">
-      <c r="B61" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="14"/>
-    <row r="63" spans="2:5" ht="14"/>
+      <c r="G58" s="5">
+        <v>39654</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="14">
+      <c r="B59" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="14"/>
+    <row r="63" spans="2:7" ht="14"/>
+    <row r="65" ht="14"/>
     <row r="66" ht="14"/>
+    <row r="67" ht="14"/>
     <row r="68" ht="14"/>
-    <row r="69" ht="14"/>
-    <row r="70" ht="14"/>
     <row r="71" ht="14"/>
+    <row r="73" ht="14"/>
     <row r="74" ht="14"/>
-    <row r="76" ht="14"/>
-    <row r="77" ht="14"/>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/status_20120723.xlsx
+++ b/status_20120723.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
   <si>
     <t>Sebastian</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,14 @@
   </si>
   <si>
     <t>backend, (next previous html)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facebook, Yahoo, Google, Twitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -744,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A3:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="175" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="175" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -759,22 +767,22 @@
   <sheetData>
     <row r="3" spans="1:7" ht="14">
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -785,10 +793,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14">
@@ -796,10 +804,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14">
@@ -807,13 +815,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14">
@@ -821,10 +829,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14">
@@ -832,18 +840,18 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14">
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -854,7 +862,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
@@ -863,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14">
@@ -871,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>6</v>
@@ -880,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14">
@@ -888,16 +896,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G16" s="5">
         <v>39651</v>
@@ -908,16 +916,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G17" s="5">
         <v>39652</v>
@@ -928,7 +936,7 @@
     </row>
     <row r="20" spans="1:7" ht="14">
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -939,13 +947,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G22" s="5">
         <v>39654</v>
@@ -956,13 +964,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G23" s="5">
         <v>39655</v>
@@ -973,16 +981,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G24" s="5">
         <v>39654</v>
@@ -990,16 +998,16 @@
     </row>
     <row r="25" spans="1:7" ht="14">
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1008,13 +1016,13 @@
         <v>13</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14">
@@ -1022,18 +1030,18 @@
         <v>14</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14">
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1044,10 +1052,10 @@
         <v>0.5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14">
@@ -1055,15 +1063,15 @@
         <v>0.7</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14">
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1074,15 +1082,15 @@
         <v>0.2</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14">
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1093,7 +1101,7 @@
         <v>0.2</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -1102,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G43" s="5">
         <v>39655</v>
@@ -1113,16 +1121,16 @@
         <v>0.3</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E44" t="s">
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14">
@@ -1130,16 +1138,16 @@
         <v>0.4</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14">
@@ -1147,16 +1155,16 @@
         <v>0.6</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G46" s="5">
         <v>39655</v>
@@ -1167,16 +1175,16 @@
         <v>0.8</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14">
@@ -1184,21 +1192,21 @@
         <v>0.9</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="14">
       <c r="B51" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="2:7">
@@ -1206,38 +1214,38 @@
     </row>
     <row r="53" spans="2:7" ht="14">
       <c r="B53" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="14">
       <c r="B54" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="14">
       <c r="B55" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" t="s">
         <v>24</v>
-      </c>
-      <c r="E55" t="s">
-        <v>22</v>
       </c>
       <c r="G55" s="5">
         <v>39655</v>
@@ -1245,19 +1253,19 @@
     </row>
     <row r="56" spans="2:7" ht="14">
       <c r="B56" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G56" s="5">
         <v>39655</v>
@@ -1265,10 +1273,13 @@
     </row>
     <row r="58" spans="2:7" ht="14">
       <c r="B58" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G58" s="5">
         <v>39654</v>
@@ -1277,6 +1288,18 @@
     <row r="59" spans="2:7" ht="14">
       <c r="B59" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="5">
+        <v>39662</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="14"/>
@@ -1289,6 +1312,7 @@
     <row r="73" ht="14"/>
     <row r="74" ht="14"/>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/status_20120723.xlsx
+++ b/status_20120723.xlsx
@@ -73,11 +73,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Facebook, Yahoo, Google, Twitter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facebook, Yahoo, Google, Twitter - We need External URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -753,7 +753,7 @@
   <dimension ref="A3:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="175" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1290,13 +1290,13 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
         <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" s="5">
         <v>39662</v>
@@ -1312,7 +1312,6 @@
     <row r="73" ht="14"/>
     <row r="74" ht="14"/>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/status_20120723.xlsx
+++ b/status_20120723.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
   <si>
     <t>Sebastian</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>Facebook, Yahoo, Google, Twitter - We need External URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brendan to build out and add Jason</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -752,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A3:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="175" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="175" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -767,22 +771,22 @@
   <sheetData>
     <row r="3" spans="1:7" ht="14">
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -793,10 +797,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14">
@@ -804,10 +808,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14">
@@ -815,13 +819,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14">
@@ -829,10 +833,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14">
@@ -840,18 +844,18 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14">
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -862,7 +866,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
@@ -871,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14">
@@ -879,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>6</v>
@@ -888,7 +892,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14">
@@ -896,16 +900,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G16" s="5">
         <v>39651</v>
@@ -916,16 +920,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G17" s="5">
         <v>39652</v>
@@ -936,7 +940,7 @@
     </row>
     <row r="20" spans="1:7" ht="14">
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -947,13 +951,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G22" s="5">
         <v>39654</v>
@@ -964,13 +968,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G23" s="5">
         <v>39655</v>
@@ -981,16 +985,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" s="5">
         <v>39654</v>
@@ -998,16 +1002,16 @@
     </row>
     <row r="25" spans="1:7" ht="14">
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1016,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14">
@@ -1030,18 +1034,18 @@
         <v>14</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14">
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1052,10 +1056,10 @@
         <v>0.5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14">
@@ -1063,15 +1067,15 @@
         <v>0.7</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14">
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1082,15 +1086,15 @@
         <v>0.2</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14">
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1101,7 +1105,7 @@
         <v>0.2</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -1110,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G43" s="5">
         <v>39655</v>
@@ -1121,16 +1125,16 @@
         <v>0.3</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E44" t="s">
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14">
@@ -1138,16 +1142,16 @@
         <v>0.4</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E45" t="s">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14">
@@ -1155,16 +1159,16 @@
         <v>0.6</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G46" s="5">
         <v>39655</v>
@@ -1175,16 +1179,16 @@
         <v>0.8</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
       <c r="E47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s">
         <v>39</v>
-      </c>
-      <c r="F47" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14">
@@ -1192,21 +1196,21 @@
         <v>0.9</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="14">
       <c r="B51" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="2:7">
@@ -1214,38 +1218,41 @@
     </row>
     <row r="53" spans="2:7" ht="14">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="14">
       <c r="B54" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="14">
       <c r="B55" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G55" s="5">
         <v>39655</v>
@@ -1253,19 +1260,19 @@
     </row>
     <row r="56" spans="2:7" ht="14">
       <c r="B56" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" t="s">
         <v>26</v>
       </c>
-      <c r="E56" t="s">
-        <v>25</v>
-      </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G56" s="5">
         <v>39655</v>
@@ -1273,13 +1280,13 @@
     </row>
     <row r="58" spans="2:7" ht="14">
       <c r="B58" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G58" s="5">
         <v>39654</v>
@@ -1293,7 +1300,7 @@
         <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
@@ -1312,6 +1319,7 @@
     <row r="73" ht="14"/>
     <row r="74" ht="14"/>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
